--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/61.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/61.xlsx
@@ -479,13 +479,13 @@
         <v>-2.286429439109665</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.869553473903359</v>
+        <v>-8.606214894544882</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.007278491977886</v>
+        <v>-3.08034663413756</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.491791709949401</v>
+        <v>-5.444410665965195</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-2.310085865381024</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.130469977236118</v>
+        <v>-8.84931277371005</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.085360986125941</v>
+        <v>-3.178551997753347</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.434696177256633</v>
+        <v>-5.372350631124334</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-2.388628068184297</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.9399539696372</v>
+        <v>-9.668851654693578</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.969978521181809</v>
+        <v>-3.064256193945079</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.296677120699157</v>
+        <v>-5.249282984412109</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-2.499745498109128</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.70032873407897</v>
+        <v>-10.43716035465743</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.874692741099727</v>
+        <v>-2.966168661054867</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.519206992099975</v>
+        <v>-5.453418170320302</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-2.625674261917615</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.47589056981714</v>
+        <v>-11.21684626579074</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.729381271859409</v>
+        <v>-2.813106548532247</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.073558095670461</v>
+        <v>-5.006983735720285</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-2.746343473596234</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.13150072691941</v>
+        <v>-11.87609608308302</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.701468482200849</v>
+        <v>-2.780480529850666</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.195421250521248</v>
+        <v>-5.150121882688875</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-2.842854733665732</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.63712546266687</v>
+        <v>-12.37123388425426</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.575625267286178</v>
+        <v>-2.660960897208549</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.753582214218676</v>
+        <v>-4.709709907396053</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-2.893365515590858</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.59679126096539</v>
+        <v>-13.35133676728871</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.332448834303958</v>
+        <v>-2.40778194485525</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.657668003600191</v>
+        <v>-4.62640358441415</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-2.880635968094152</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.33785487871561</v>
+        <v>-14.09742782933015</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.317117747676297</v>
+        <v>-2.383953953683308</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.253704999418733</v>
+        <v>-4.262764872985207</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-2.791220438948908</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.03508546655173</v>
+        <v>-14.7969888470721</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.137975767892959</v>
+        <v>-2.204916712322704</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.045288630481296</v>
+        <v>-4.047854721838275</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-2.61613938954833</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.69306533046836</v>
+        <v>-15.46342633862449</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.137111675905405</v>
+        <v>-2.186351826893137</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.532711881924879</v>
+        <v>-3.529700652271282</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-2.353662770157245</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.6586357573485</v>
+        <v>-16.43590950140506</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.964411109120197</v>
+        <v>-2.023719240993215</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.896360502302783</v>
+        <v>-2.888203997632388</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-2.011664642731595</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.28302077217326</v>
+        <v>-17.07978895516115</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.697956561685388</v>
+        <v>-1.737979731472544</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.506655015915965</v>
+        <v>-2.527602700462727</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-1.602465117279453</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.18223940825153</v>
+        <v>-17.98688915755013</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.530532192945395</v>
+        <v>-1.56774051762158</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.917750141792285</v>
+        <v>-1.928891691510594</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-1.143690978629774</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.09060956401617</v>
+        <v>-18.90598190934215</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.378831679918315</v>
+        <v>-1.398784349449105</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.527128194206546</v>
+        <v>-1.584118988476579</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-0.6589846122797873</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.87038712126937</v>
+        <v>-19.69735924691312</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.150069872364835</v>
+        <v>-1.151536210283108</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.9966673599683308</v>
+        <v>-1.054181846352033</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-0.1710060728561409</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.85270260348408</v>
+        <v>-20.68622088054869</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.053841446478148</v>
+        <v>-1.052859523765019</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.6296377421033822</v>
+        <v>-0.6947326718324441</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.2987569280503248</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.6888687090766</v>
+        <v>-21.52804286096884</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9077313467644855</v>
+        <v>-0.9027955485931548</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.251309466886024</v>
+        <v>-0.3256868393298697</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.7295256931743639</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.345709542646</v>
+        <v>-22.17873031220262</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.670747573026402</v>
+        <v>-0.6447593518855758</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1035443093361194</v>
+        <v>0.05063831355270435</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.104873577436962</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.96398045204367</v>
+        <v>-22.80903304791184</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.3765635281728172</v>
+        <v>-0.3428377560525309</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4333656025248825</v>
+        <v>0.365521289199058</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.414208741395545</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.59372021873069</v>
+        <v>-23.44008204488303</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.1207530229483316</v>
+        <v>-0.06865874994110358</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4034758751372219</v>
+        <v>0.3262967498852467</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.651743709340149</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.09896527769574</v>
+        <v>-23.95278971646787</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.003328158760890501</v>
+        <v>0.04801985298435914</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6888357078754833</v>
+        <v>0.5846602541638689</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.813909990207841</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.47357533890605</v>
+        <v>-24.33922212714426</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.02368668967977454</v>
+        <v>0.03096058238159007</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6057650463447314</v>
+        <v>0.5154674336453466</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.904115280727247</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.73938836350161</v>
+        <v>-24.61035062669356</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2606912203453574</v>
+        <v>0.3178129376438082</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5942700044496959</v>
+        <v>0.5052554374288003</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.929455199392397</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.74432416167294</v>
+        <v>-24.6280906970441</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2809973820528745</v>
+        <v>0.3320049939242393</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4484217507928675</v>
+        <v>0.3436440511505338</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.898705075143471</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.69903788614341</v>
+        <v>-24.60872718114119</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09917148018698289</v>
+        <v>0.1501529074526642</v>
       </c>
       <c r="G27" t="n">
-        <v>0.4240307905987318</v>
+        <v>0.3201302752467937</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.825452566031676</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.79504374288179</v>
+        <v>-24.72171375466528</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2206418659525173</v>
+        <v>0.2640952190842062</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1377283120558662</v>
+        <v>0.03456096566306474</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.725862843507328</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.83377077468761</v>
+        <v>-24.76909479864949</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1931218453792092</v>
+        <v>0.207850686076151</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0294156906462664</v>
+        <v>-0.05789687700520475</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.614723729772181</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.59723213924615</v>
+        <v>-24.54028062188464</v>
       </c>
       <c r="F30" t="n">
-        <v>0.04897559109180514</v>
+        <v>0.08613154655662372</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.1764214946313508</v>
+        <v>-0.2534696968549088</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.510898055105517</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.13595103322362</v>
+        <v>-24.06776632002391</v>
       </c>
       <c r="F31" t="n">
-        <v>0.05727611109345947</v>
+        <v>0.08331670144565262</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.6409625840614752</v>
+        <v>-0.7100899430657889</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.431947433987749</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.21179474358573</v>
+        <v>-24.15650594868513</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1225281484566222</v>
+        <v>0.1482807081462974</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.7166622790923354</v>
+        <v>-0.7605869551263262</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.390806344396857</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.78725063933708</v>
+        <v>-23.73155598304838</v>
       </c>
       <c r="F33" t="n">
-        <v>0.03952294844007892</v>
+        <v>0.0598029255419126</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.181831799058862</v>
+        <v>-1.219917308025444</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.399679457375107</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.2278689081215</v>
+        <v>-23.17019731410369</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.1052779209894114</v>
+        <v>-0.09812952363782897</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.269445489675693</v>
+        <v>-1.291859512140728</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.468441637978551</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.87302822420219</v>
+        <v>-22.82909045586536</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.3021992480318132</v>
+        <v>-0.2890414836758785</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.297698679208138</v>
+        <v>-1.31234896608803</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.59971551307536</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.14437610954593</v>
+        <v>-22.10189158682453</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.4227269879927434</v>
+        <v>-0.4228317264154772</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.509453585370216</v>
+        <v>-1.513027784046007</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.79042607869235</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.35349627948294</v>
+        <v>-21.28804785757715</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.3539400288623146</v>
+        <v>-0.3587841809137532</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.612895870122693</v>
+        <v>-1.642536843756361</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>2.038789931322287</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.97523346577979</v>
+        <v>-20.91249515056224</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.4236434491916642</v>
+        <v>-0.411559253668751</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.858612209856208</v>
+        <v>-1.891264413143473</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>2.336591719715636</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.31534212564828</v>
+        <v>-20.2588095619777</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.2637864314941889</v>
+        <v>-0.2647290772987932</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.025316501939906</v>
+        <v>-2.042703080113718</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>2.66777501375273</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.99130763031555</v>
+        <v>-19.95670467390487</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.548203618427846</v>
+        <v>-0.546527803664105</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.240999098954501</v>
+        <v>-2.268558396436335</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>3.020390945972383</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.47761803601759</v>
+        <v>-19.41888596546961</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2736449355340086</v>
+        <v>-0.2689971680251959</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.106973194763752</v>
+        <v>-2.108845394070118</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>3.378977121198784</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.91764715117412</v>
+        <v>-18.86488517072197</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.02774530356070962</v>
+        <v>-0.007347495733300404</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.099039259241666</v>
+        <v>-2.077083467376091</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>3.724856564871758</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.03039487989319</v>
+        <v>-17.96049507502121</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.0343176395872561</v>
+        <v>-0.01770350728110572</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.998385634994476</v>
+        <v>-1.966780815934549</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>4.041884003959069</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.68977243686</v>
+        <v>-17.62565942984407</v>
       </c>
       <c r="F44" t="n">
-        <v>0.02021180174853297</v>
+        <v>0.03039761335939585</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.209263356866157</v>
+        <v>-2.170470863546123</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>4.318041738390532</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.17870130313039</v>
+        <v>-17.11834578703003</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.01474464683887563</v>
+        <v>0.0004031475490014285</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.2572204621754</v>
+        <v>-2.211004633144107</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>4.541320104837141</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.80275582703022</v>
+        <v>-16.74304183376911</v>
       </c>
       <c r="F46" t="n">
-        <v>0.00306088502587182</v>
+        <v>0.01594371102213027</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.222054536742524</v>
+        <v>-2.148593625497599</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>4.700753614385715</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.14448793245107</v>
+        <v>-16.06863112978612</v>
       </c>
       <c r="F47" t="n">
-        <v>0.02466318471471983</v>
+        <v>0.02140320130713004</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.520833979893554</v>
+        <v>-2.437828779877011</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>4.793778831084031</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.48047251692441</v>
+        <v>-15.41950166259049</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.0003169291072935052</v>
+        <v>-0.01152394033981102</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.461264001963701</v>
+        <v>-2.371044943081367</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>4.818434820396631</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.95726481846051</v>
+        <v>-14.88271724607973</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1373224506677727</v>
+        <v>0.1422058796277365</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.669850570838081</v>
+        <v>-2.549362107785675</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>4.773106925043225</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.26448561359058</v>
+        <v>-14.18103527527742</v>
       </c>
       <c r="F50" t="n">
-        <v>0.285802257195788</v>
+        <v>0.287190041297011</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.618057420796212</v>
+        <v>-2.455778327073018</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>4.664311219202777</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.48533648687378</v>
+        <v>-13.41863120389518</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2811152127784501</v>
+        <v>0.2826339199080903</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.706666126429014</v>
+        <v>-2.52133148740154</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>4.499268194205956</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.88959743066671</v>
+        <v>-12.83391586668085</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3608211524788784</v>
+        <v>0.3668305194832306</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.719810798482107</v>
+        <v>-2.533481144438662</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>4.284277014871122</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.22695670693843</v>
+        <v>-12.17991606282811</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4099041958325094</v>
+        <v>0.4158873782311782</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.749608879749876</v>
+        <v>-2.551849645325603</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>4.02928076126592</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.8683716244064</v>
+        <v>-11.80288392559208</v>
       </c>
       <c r="F54" t="n">
-        <v>0.2959618842009674</v>
+        <v>0.305925126663521</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.862294330308612</v>
+        <v>-2.656090560551426</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>3.74510724420482</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.40292716608019</v>
+        <v>-11.34932727824617</v>
       </c>
       <c r="F55" t="n">
-        <v>0.05018008295324394</v>
+        <v>0.05785217241849542</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.340922737596434</v>
+        <v>-3.118929650612126</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>3.439315830301116</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.97058004933788</v>
+        <v>-10.89927936806184</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1320200680168736</v>
+        <v>0.1499565229100383</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.411830649787222</v>
+        <v>-3.188318855673275</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>3.118522553054688</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.20945902363413</v>
+        <v>-10.14412843245392</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0705517061749697</v>
+        <v>0.0833559783541778</v>
       </c>
       <c r="G57" t="n">
-        <v>-3.765938164747387</v>
+        <v>-3.55646131927977</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>2.792193101001389</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.900598507294971</v>
+        <v>-9.842665067220333</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.09356030994606657</v>
+        <v>-0.09103349549761343</v>
       </c>
       <c r="G58" t="n">
-        <v>-3.808200118320479</v>
+        <v>-3.588904045721567</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>2.464886330342973</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.361666953118158</v>
+        <v>-9.29939996080291</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.0155825542207461</v>
+        <v>0.0001020245836417289</v>
       </c>
       <c r="G59" t="n">
-        <v>-4.080912786513633</v>
+        <v>-3.876411016125871</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>2.138117365597395</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.003409178157167</v>
+        <v>-8.931309866407782</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.1541776721032583</v>
+        <v>-0.1358222635191583</v>
       </c>
       <c r="G60" t="n">
-        <v>-3.995472418168529</v>
+        <v>-3.78606103421512</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>1.818967733110759</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.461243825178448</v>
+        <v>-8.403978092548739</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.1677805747558117</v>
+        <v>-0.1618235769628263</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.393609347585418</v>
+        <v>-4.188701715809564</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>1.510632633269748</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.966236947035628</v>
+        <v>-7.889398221657538</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.1155815633258498</v>
+        <v>-0.1027380142381165</v>
       </c>
       <c r="G62" t="n">
-        <v>-4.36214854385675</v>
+        <v>-4.144358086084638</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>1.214793919499253</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.48885230851777</v>
+        <v>-7.406711200488781</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.1653846833357758</v>
+        <v>-0.1633815610009917</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.360891682783945</v>
+        <v>-4.147172931195608</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.9366890597186122</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.118916199421959</v>
+        <v>-7.051543208998436</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.3200964260164527</v>
+        <v>-0.3209081487926397</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.608598052549402</v>
+        <v>-4.398571330362432</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.6820476530951944</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.754112273040103</v>
+        <v>-6.679276669996796</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.271667997804908</v>
+        <v>-0.2655408000749802</v>
       </c>
       <c r="G65" t="n">
-        <v>-4.888838794876548</v>
+        <v>-4.685541516350226</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.4549817605494292</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.509443317533926</v>
+        <v>-6.431033515814829</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.3836857409187162</v>
+        <v>-0.3841046946096515</v>
       </c>
       <c r="G66" t="n">
-        <v>-4.871334385977161</v>
+        <v>-4.681836394646018</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.2592133997161956</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.343393640592314</v>
+        <v>-6.265298054141419</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.4366310136106565</v>
+        <v>-0.4387781512766996</v>
       </c>
       <c r="G67" t="n">
-        <v>-4.976085901013811</v>
+        <v>-4.800099166215329</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.1025042546893535</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.061333068170168</v>
+        <v>-5.988893356546898</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.4008759345499026</v>
+        <v>-0.4081290703242188</v>
       </c>
       <c r="G68" t="n">
-        <v>-4.970547856911761</v>
+        <v>-4.796250029179862</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.01038738366242171</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.922724857984814</v>
+        <v>-5.856752743965357</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.6518946569343165</v>
+        <v>-0.6661521747289562</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.063922160778951</v>
+        <v>-4.899718498538022</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.07674414721526671</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.695390111441083</v>
+        <v>-5.615356864169612</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.607420104180973</v>
+        <v>-0.6093184880930232</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.922119428700216</v>
+        <v>-4.769960685073675</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.09233781560514039</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.567871081762671</v>
+        <v>-5.493362786290408</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.6989222087417966</v>
+        <v>-0.7110456811732349</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.890331317400505</v>
+        <v>-4.748803523681446</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.05473617476012647</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.556454593684686</v>
+        <v>-5.469482425907099</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.7866799146898863</v>
+        <v>-0.8029274625164684</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.7771221747281</v>
+        <v>-4.649550775838321</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.0354822209798447</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.596661055711627</v>
+        <v>-5.502867798153501</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.8425054940070063</v>
+        <v>-0.8644874704782644</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.589155982829439</v>
+        <v>-4.465486090186494</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.1751733301542073</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.833945952415069</v>
+        <v>-5.739615910440434</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.7387359016834855</v>
+        <v>-0.7558475414976215</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.489026050695918</v>
+        <v>-4.352159116788513</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.3636577566736454</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.027083603936212</v>
+        <v>-5.940923158934813</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.057127614491422</v>
+        <v>-1.087370834055809</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.325215157540241</v>
+        <v>-4.188191115998736</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.597618438781284</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.554585577732198</v>
+        <v>-6.470572270396842</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.9695008315717492</v>
+        <v>-0.9972957905047336</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.167675477445751</v>
+        <v>-4.020452531990542</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.8695034557913355</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.016390375868402</v>
+        <v>-6.93825551250898</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.022092612086963</v>
+        <v>-1.055137584459479</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.084500077492265</v>
+        <v>-3.941623776580509</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>1.175197461710081</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.596313930242657</v>
+        <v>-7.513845514642625</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.10740205740365</v>
+        <v>-1.151405287254691</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.698931758803433</v>
+        <v>-3.53506849643639</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>1.510146877433751</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.022808787614727</v>
+        <v>-7.940759325705629</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.064210550328796</v>
+        <v>-1.116265546427498</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.501028509047902</v>
+        <v>-3.32496322043237</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>1.867404004656652</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.493031936478159</v>
+        <v>-8.412697566241329</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.253289587969003</v>
+        <v>-1.299335217063354</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.136172213454679</v>
+        <v>-2.956807664523033</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>2.239958147484271</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.435769387202328</v>
+        <v>-9.355330278542764</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.175639139814726</v>
+        <v>-1.222705968530731</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.126300617112018</v>
+        <v>-2.932102489060695</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>2.625587355269461</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.25196973096121</v>
+        <v>-10.18430870987518</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.262886245951989</v>
+        <v>-1.316198103123497</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.951374358843716</v>
+        <v>-2.758694937922034</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>3.020614471289643</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.08058157781406</v>
+        <v>-11.01916558518352</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.3591539487472</v>
+        <v>-1.427063723587233</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.581595357382005</v>
+        <v>-2.382395969645143</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>3.41631086738515</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.28417007035678</v>
+        <v>-12.23781022599423</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.444044440372952</v>
+        <v>-1.500315157986691</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.472457920893377</v>
+        <v>-2.279582115429068</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>3.811666886979104</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.15944288453753</v>
+        <v>-13.12842721910548</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.534486068403596</v>
+        <v>-1.60035344400032</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.137242598933822</v>
+        <v>-1.933748935864874</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>4.203093691335344</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.33497457209043</v>
+        <v>-14.32190845385439</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.726157382006466</v>
+        <v>-1.813849626440347</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.879284956043294</v>
+        <v>-1.691750810138409</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>4.581451312507514</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.42578596795452</v>
+        <v>-15.42743559811258</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.769296519869953</v>
+        <v>-1.853309827205309</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.473148629590109</v>
+        <v>-1.275585779708463</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>4.941544587161296</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.82969978627849</v>
+        <v>-16.84801591795407</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.786630728832398</v>
+        <v>-1.881497555223545</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.156904054448216</v>
+        <v>-0.9716479692377923</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>5.277553443438932</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.49106064768216</v>
+        <v>-18.54475218163608</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.015457997900087</v>
+        <v>-2.106331671924507</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.9524153763632967</v>
+        <v>-0.7629173850321536</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>5.579132397203245</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.10319445040095</v>
+        <v>-20.16064347527044</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.241954837061948</v>
+        <v>-2.329241220107735</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.6498260730853237</v>
+        <v>-0.4751223839653311</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>5.835210982095421</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.92367916054295</v>
+        <v>-21.98944179771695</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.440512701959565</v>
+        <v>-2.542331541159669</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.7879236834598503</v>
+        <v>-0.6417219376262954</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>6.038532831120055</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.63844352523803</v>
+        <v>-23.71465382007971</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.543038525513122</v>
+        <v>-2.647646025218513</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.613730594150685</v>
+        <v>-0.4635487882532452</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>6.178169534554526</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.70626802066592</v>
+        <v>-25.79566226446923</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.735246623532502</v>
+        <v>-2.820307315095197</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.6042255822875918</v>
+        <v>-0.4592806975268425</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>6.239782711976642</v>
       </c>
       <c r="E94" t="n">
-        <v>-27.96452006092673</v>
+        <v>-28.067896884165</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.602988180225386</v>
+        <v>-2.692408608634374</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.7466960218112549</v>
+        <v>-0.5939612168596786</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>6.220015160650041</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.2461680463657</v>
+        <v>-30.34738463963508</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.100862272690545</v>
+        <v>-3.180672950813706</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.105254919737607</v>
+        <v>-0.9830120881044104</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>6.106716112156781</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.42155890194122</v>
+        <v>-32.53208412253107</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.161401081030686</v>
+        <v>-3.239221729121906</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.320570932272634</v>
+        <v>-1.207492712628646</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>5.899884836104556</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.64992121481436</v>
+        <v>-34.75663657527727</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.522604624131066</v>
+        <v>-3.618623573172285</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.544855172254243</v>
+        <v>-1.443638578984859</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>5.586113975485397</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.15591890174915</v>
+        <v>-37.25873275596523</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.770441916924941</v>
+        <v>-3.860215837510657</v>
       </c>
       <c r="G98" t="n">
-        <v>-1.9542776667207</v>
+        <v>-1.876718864686315</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>5.192471603814155</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.67820341341904</v>
+        <v>-39.79400483205411</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.660715326808435</v>
+        <v>-3.75086892417656</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.425194707634745</v>
+        <v>-2.357533686548705</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>4.686859419355298</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.26090890270351</v>
+        <v>-42.35919282013634</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.85136544078965</v>
+        <v>-3.934318271594826</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.768697457293112</v>
+        <v>-2.722835120438546</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>4.136142347700362</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.53373267602715</v>
+        <v>-44.59768857540898</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.088872906641402</v>
+        <v>-4.172401798771615</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.362420298862548</v>
+        <v>-3.333591048005067</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>3.460331438076293</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.85158087882349</v>
+        <v>-46.89682787744449</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.228449947237044</v>
+        <v>-4.315055530535061</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.628076215824012</v>
+        <v>-3.607023792854516</v>
       </c>
     </row>
   </sheetData>
